--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_01_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_01_end.xlsx
@@ -1888,7 +1888,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="무에나"]  안심하십시오. 이전에 열렸던 회의에 대해 의문이 있으면 언제든지 제게 말씀해 주시기 바랍니다….. 네? 아, 그건 좀…… 송구하오나 다시 한번 고려를 부탁…… 네, 잘 부탁드립니다, 네……
+    <t xml:space="preserve">[name="무에나"]  안심하십시오. 이전에 열렸던 회의에 대해 의문이 있으면 언제든지 제게 말씀해 주시기 바랍니다…… 네? 아, 그건 좀…… 송구하오나 다시 한번 고려를 부탁…… 네, 잘 부탁드립니다, 네……
 </t>
   </si>
   <si>
@@ -2388,7 +2388,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="마리아"]  아으으으……. 잠깐만, 조금만 쉴게……
+    <t xml:space="preserve">[name="마리아"]  아으으으…… 잠깐만, 조금만 쉴게……
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_01_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_01_end.xlsx
@@ -1396,7 +1396,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  What do you mean, “How’s that?” You’re barely standing upright.
+    <t xml:space="preserve">[name="Zofia"]  What do you mean, 'How’s that?' You’re barely standing upright.
 </t>
   </si>
   <si>
@@ -1688,7 +1688,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  Do you think she didn’t practice these “basics” back when Ol’ Pegasus and Margaret were around?
+    <t xml:space="preserve">[name="Old Knight"]  Do you think she didn’t practice these 'basics' back when Ol’ Pegasus and Margaret were around?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_01_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_01_end.xlsx
@@ -1216,11 +1216,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  (My equipment’s all good. My sword... it’s the one Margaret used when she was training. It should still be usable, right?)  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  (Okay, I’m all set. Time to go...)
+    <t xml:space="preserve">[name="Maria"]  (My equipment's all good. My sword... it's the one Margaret used when she was training. It should still be usable, right?)  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  (Okay, I'm all set. Time to go...)
 </t>
   </si>
   <si>
@@ -1232,7 +1232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  Let me guess. Off to blemish our family’s reputation?
+    <t xml:space="preserve">[name="Młynar"]  Let me guess. Off to blemish our family's reputation?
 </t>
   </si>
   <si>
@@ -1240,11 +1240,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  I’ve already heard about the Major from my colleagues.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Młynar"]  You don’t deserve to stand in an arena for knights. What’s more, the Major doesn’t deserve the Nearls.
+    <t xml:space="preserve">[name="Młynar"]  I've already heard about the Major from my colleagues.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Młynar"]  You don't deserve to stand in an arena for knights. What's more, the Major doesn't deserve the Nearls.
 </t>
   </si>
   <si>
@@ -1272,7 +1272,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  Even if we’re stripped of our nobility, our ideals remain unchanged. We have nothing to defend.
+    <t xml:space="preserve">[name="Młynar"]  Even if we're stripped of our nobility, our ideals remain unchanged. We have nothing to defend.
 </t>
   </si>
   <si>
@@ -1284,7 +1284,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  Don’t be like your sister. Just because she’s still young and full of beans, she lost all self-control—
+    <t xml:space="preserve">[name="Młynar"]  Don't be like your sister. Just because she's still young and full of beans, she lost all self-control—
 </t>
   </si>
   <si>
@@ -1292,7 +1292,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  Good evening. Yes, that’s right, it’s me...
+    <t xml:space="preserve">[name="Młynar"]  Good evening. Yes, that's right, it's me...
 </t>
   </si>
   <si>
@@ -1308,11 +1308,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  Please. Please reconsider. Definitely. I won’t ever make such a mistake again.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Młynar"]  —Maria, I’ll deal with you another time. I hope you’ll know your place.
+    <t xml:space="preserve">[name="Młynar"]  Please. Please reconsider. Definitely. I won't ever make such a mistake again.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Młynar"]  —Maria, I'll deal with you another time. I hope you'll know your place.
 </t>
   </si>
   <si>
@@ -1320,7 +1320,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Getting intimidated won’t do me any good here... If I don’t hurry, I’ll be late for practice.
+    <t xml:space="preserve">[name="Maria"]  Getting intimidated won't do me any good here... If I don't hurry, I'll be late for practice.
 </t>
   </si>
   <si>
@@ -1336,19 +1336,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  It’s been ten minutes, and you haven’t returned my attacks once.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Uhh... You said you’d take me on with just one hand, but that’s a one-handed sword!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  I wouldn’t be using one hand If I really fought you. Or would you rather try a Leithanien style?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  I knew knights from other countries had different fighting styles... Are you telling me you can fight like them too? You’re actually picking on me, aren’t you!?  
+    <t xml:space="preserve">[name="Zofia"]  It's been ten minutes, and you haven't returned my attacks once.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Uhh... You said you'd take me on with just one hand, but that's a one-handed sword!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  I wouldn't be using one hand If I really fought you. Or would you rather try a Leithanien style?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  I knew knights from other countries had different fighting styles... Are you telling me you can fight like them too? You're actually picking on me, aren't you!?  
 </t>
   </si>
   <si>
@@ -1360,11 +1360,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Well, it’s all in the past. It’s not something I lose sleep over.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  I’m more worried about you. Look how unprepared you are... you’re just sending yourself to a quick death, wanting to fight in the Major.
+    <t xml:space="preserve">[name="Zofia"]  Well, it's all in the past. It's not something I lose sleep over.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  I'm more worried about you. Look how unprepared you are... you're just sending yourself to a quick death, wanting to fight in the Major.
 </t>
   </si>
   <si>
@@ -1372,7 +1372,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Alright, let’s get back to it.
+    <t xml:space="preserve">[name="Zofia"]  Alright, let's get back to it.
 </t>
   </si>
   <si>
@@ -1380,11 +1380,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  If you can’t even handle this much, you’d better give up now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Nnngg—! Okay, let’s go! 
+    <t xml:space="preserve">[name="Zofia"]  If you can't even handle this much, you'd better give up now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Nnngg—! Okay, let's go! 
 </t>
   </si>
   <si>
@@ -1392,15 +1392,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Haa.... Haaah... H-How’s that?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  What do you mean, 'How’s that?' You’re barely standing upright.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Aside from sleeping and eating... we’ve basically... been working out the whole time... Don’t you get tired at all, Zofia...?
+    <t xml:space="preserve">[name="Maria"]  Haa.... Haaah... H-How's that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  What do you mean, 'How's that?' You're barely standing upright.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Aside from sleeping and eating... we've basically... been working out the whole time... Don't you get tired at all, Zofia...?
 </t>
   </si>
   <si>
@@ -1408,15 +1408,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Those are the matches draw the crowds to the Kazimierz Major. Each knightclub sends a single representative—Well, in your case, you’re joining the fray as an individual.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  You have somewhere around a couple dozen people all in a huge, man-made arena. You rack up points by striking your opponents’ armor, and those are added to your overall score.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  Of course... if you’re defeated or incapacitated before the time limit, you’re immediately eliminated, and you score zero points.
+    <t xml:space="preserve">[name="Zofia"]  Those are the matches draw the crowds to the Kazimierz Major. Each knightclub sends a single representative—Well, in your case, you're joining the fray as an individual.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  You have somewhere around a couple dozen people all in a huge, man-made arena. You rack up points by striking your opponents' armor, and those are added to your overall score.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  Of course... if you're defeated or incapacitated before the time limit, you're immediately eliminated, and you score zero points.
 </t>
   </si>
   <si>
@@ -1456,11 +1456,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  It’s certainly not a pretty sight, but what’s worse is that the audience likes it. So nothing else matters.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  Which means you’ll have to be ready to fight an entire day!
+    <t xml:space="preserve">[name="Zofia"]  It's certainly not a pretty sight, but what's worse is that the audience likes it. So nothing else matters.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  Which means you'll have to be ready to fight an entire day!
 </t>
   </si>
   <si>
@@ -1476,7 +1476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Let’s call it here. You’re getting better at this.
+    <t xml:space="preserve">[name="Zofia"]  Let's call it here. You're getting better at this.
 </t>
   </si>
   <si>
@@ -1484,7 +1484,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Don’t just lie down right after you’re done working out. Get up and walk around a little. Maybe think about what to have for dinner tonight.
+    <t xml:space="preserve">[name="Zofia"]  Don't just lie down right after you're done working out. Get up and walk around a little. Maybe think about what to have for dinner tonight.
 </t>
   </si>
   <si>
@@ -1496,7 +1496,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  We can probably forget about winning the sprint race... All the top knightclubs have members who specialize in that, and if they show up, we’ve got no hope there.
+    <t xml:space="preserve">[name="Zofia"]  We can probably forget about winning the sprint race... All the top knightclubs have members who specialize in that, and if they show up, we've got no hope there.
 </t>
   </si>
   <si>
@@ -1504,7 +1504,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Naturally, how well you do in the races has to do with how well-equipped you are. We’ve got to work on your stamina, but the real bottleneck there is our budget...
+    <t xml:space="preserve">[name="Zofia"]  Naturally, how well you do in the races has to do with how well-equipped you are. We've got to work on your stamina, but the real bottleneck there is our budget...
 </t>
   </si>
   <si>
@@ -1520,7 +1520,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  I just remembered Marcin gave me two meal coupons for fixing the jukebox the other day! Why don’t we have dinner there tonight?
+    <t xml:space="preserve">[name="Maria"]  I just remembered Marcin gave me two meal coupons for fixing the jukebox the other day! Why don't we have dinner there tonight?
 </t>
   </si>
   <si>
@@ -1528,19 +1528,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  D-Don’t be mad! I just wanted to do something for you to show my gratitude!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  I’m not mad. So, when are we leaving?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  We don’t eat out together often... Is it okay if I take a shower and get a change of clothes first?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  Okay... but we’ll get right back to training after dinner. We don’t have time for you to slack off.
+    <t xml:space="preserve">[name="Maria"]  D-Don't be mad! I just wanted to do something for you to show my gratitude!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  I'm not mad. So, when are we leaving?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  We don't eat out together often... Is it okay if I take a shower and get a change of clothes first?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  Okay... but we'll get right back to training after dinner. We don't have time for you to slack off.
 </t>
   </si>
   <si>
@@ -1556,11 +1556,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  (She’s serious about this... and she’s more serious than she looks. I was thinking she wouldn’t be ready with so little training... I was even going to talk her out of it.)  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  (She’s working so hard to get there, but she’s just as cheerful as always... I wonder who she learned that from.) 
+    <t xml:space="preserve">[name="Zofia"]  (She's serious about this... and she's more serious than she looks. I was thinking she wouldn't be ready with so little training... I was even going to talk her out of it.)  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  (She's working so hard to get there, but she's just as cheerful as always... I wonder who she learned that from.) 
 </t>
   </si>
   <si>
@@ -1568,15 +1568,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zofia lifts her head up. In the distance, far away from the garden overgrown with weeds, the lights of the towering skyscrapers glitter brilliantly in the city’s skyline.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She quietly places her oft-unused hand on her sword’s hilt, like she’s deceiving herself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just as she expected, before she’s even managed to unsheathe her sword, she feels an intense muscle pain shoot up her arm from her waist. She quickly lets go before she loses consciousness.
+    <t xml:space="preserve">Zofia lifts her head up. In the distance, far away from the garden overgrown with weeds, the lights of the towering skyscrapers glitter brilliantly in the city's skyline.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She quietly places her oft-unused hand on her sword's hilt, like she's deceiving herself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just as she expected, before she's even managed to unsheathe her sword, she feels an intense muscle pain shoot up her arm from her waist. She quickly lets go before she loses consciousness.
 </t>
   </si>
   <si>
@@ -1584,7 +1584,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  When was the last time those two brats showed their faces here? Could’ve paid the bar a visit on their time off. What are they being so shy for? 
+    <t xml:space="preserve">[name="Old Craftsman"]  When was the last time those two brats showed their faces here? Could've paid the bar a visit on their time off. What are they being so shy for? 
 </t>
   </si>
   <si>
@@ -1604,15 +1604,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  ...*Sigh*. Filthy rich knights wouldn’t know how hard life is for us common folk, with all the Catastrophe Messengers money can buy and the means to travel anywhere... You can’t imagine how much hard work went into that sword of yours...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  What are you mumbling on about now? If you’re trying to pick a fight, then do it. I’m not afraid of you!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  You can’t possibly think I’m talking about you?! 
+    <t xml:space="preserve">[name="Old Craftsman"]  ...*Sigh*. Filthy rich knights wouldn't know how hard life is for us common folk, with all the Catastrophe Messengers money can buy and the means to travel anywhere... You can't imagine how much hard work went into that sword of yours...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  What are you mumbling on about now? If you're trying to pick a fight, then do it. I'm not afraid of you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  You can't possibly think I'm talking about you?! 
 </t>
   </si>
   <si>
@@ -1624,15 +1624,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  I’m not deaf! Yeah, not bad. You know those shoddy practice swords on the market? Those are way too light to do any actual training with. Those trash manufacturers are always cutting corners. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Not these ones, though. They even sound beautiful. You can tell they’re very fine blades... but how come I think I’ve heard this sword before?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  Because you’re old.
+    <t xml:space="preserve">[name="Old Craftsman"]  I'm not deaf! Yeah, not bad. You know those shoddy practice swords on the market? Those are way too light to do any actual training with. Those trash manufacturers are always cutting corners. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  Not these ones, though. They even sound beautiful. You can tell they're very fine blades... but how come I think I've heard this sword before?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  Because you're old.
 </t>
   </si>
   <si>
@@ -1640,15 +1640,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  ...You aren’t lost, are you? Got dementia or something? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  What’s the hurry?! Zofia’s garden is huge—We should’ve asked the servant at the gate for a motorcycle. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  You aren’t getting anywhere with a motorcycle here. There’s more weeds than an overgrown forest.
+    <t xml:space="preserve">[name="Old Craftsman"]  ...You aren't lost, are you? Got dementia or something? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  What's the hurry?! Zofia's garden is huge—We should've asked the servant at the gate for a motorcycle. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  You aren't getting anywhere with a motorcycle here. There's more weeds than an overgrown forest.
 </t>
   </si>
   <si>
@@ -1656,7 +1656,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Whew—Almost fell... What’s this? An engine cover? In a garden?   
+    <t xml:space="preserve">[name="Old Craftsman"]  Whew—Almost fell... What's this? An engine cover? In a garden?   
 </t>
   </si>
   <si>
@@ -1664,7 +1664,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Y-Yes, ma’am!
+    <t xml:space="preserve">[name="Maria"]  Y-Yes, ma'am!
 </t>
   </si>
   <si>
@@ -1672,11 +1672,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  They’ve been training for a month, and they’re still working on the basics. Looks like we’re going to miss out on a lot of points.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  ...Maybe you’re the one with dementia here, Kowal.
+    <t xml:space="preserve">[name="Old Craftsman"]  They've been training for a month, and they're still working on the basics. Looks like we're going to miss out on a lot of points.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  ...Maybe you're the one with dementia here, Kowal.
 </t>
   </si>
   <si>
@@ -1684,11 +1684,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  Yes, they’ve been working on the basics for a month, but Maria’s from the Nearl family.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  Do you think she didn’t practice these 'basics' back when Ol’ Pegasus and Margaret were around?
+    <t xml:space="preserve">[name="Old Knight"]  Yes, they've been working on the basics for a month, but Maria's from the Nearl family.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  Do you think she didn't practice these 'basics' back when Ol' Pegasus and Margaret were around?
 </t>
   </si>
   <si>
@@ -1708,15 +1708,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Don’t stop. Good momentum. Let’s keep going!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  But... I’m really...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  Right, right, I hear you. Let’s make sure you stay in bed for the next three days, then—!
+    <t xml:space="preserve">[name="Zofia"]  Don't stop. Good momentum. Let's keep going!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  But... I'm really...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  Right, right, I hear you. Let's make sure you stay in bed for the next three days, then—!
 </t>
   </si>
   <si>
@@ -1732,7 +1732,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  It’s a backhand thrust, it’s fast, and above all, it hits where it matters, the vitals. So her training’s paying off? 
+    <t xml:space="preserve">[name="Bald Marcin"]  It's a backhand thrust, it's fast, and above all, it hits where it matters, the vitals. So her training's paying off? 
 </t>
   </si>
   <si>
@@ -1756,7 +1756,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Um... Where’s your sword?
+    <t xml:space="preserve">[name="Maria"]  Um... Where's your sword?
 </t>
   </si>
   <si>
@@ -1768,7 +1768,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Don’t get cocky! I’m just upset you managed to strike my opening! 
+    <t xml:space="preserve">[name="Zofia"]  Don't get cocky! I'm just upset you managed to strike my opening! 
 </t>
   </si>
   <si>
@@ -1792,11 +1792,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  But I’ll be there coaching you the whole time. You know nothing about the basics of the competitions, and there’s still lots for you to learn... the scheduling, the scoring, how to analyze all the intel—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  —Don’t lie down! Get up! We still have lots of preparation to do!  
+    <t xml:space="preserve">[name="Zofia"]  But I'll be there coaching you the whole time. You know nothing about the basics of the competitions, and there's still lots for you to learn... the scheduling, the scoring, how to analyze all the intel—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  —Don't lie down! Get up! We still have lots of preparation to do!  
 </t>
   </si>
   <si>
@@ -1804,7 +1804,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Don’t fall asleep on me! 
+    <t xml:space="preserve">[name="Zofia"]  Don't fall asleep on me! 
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_01_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_01_end.xlsx
@@ -1936,7 +1936,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="조피아"]  전력을 다하려면 원래 다른 손도 써야 하거든? 라이타니아 사람들의 전투 방식을 보여줘야 정신 차리지?
+    <t xml:space="preserve">[name="조피아"]  전력을 다하려면 원래 다른 손도 써야 하거든? 라이타니엔 사람들의 전투 방식을 보여줘야 정신 차리지?
 </t>
   </si>
   <si>
